--- a/bom/3bpv2-m bom.xlsx
+++ b/bom/3bpv2-m bom.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">C18, C19</t>
   </si>
   <si>
-    <t xml:space="preserve">150pF/50V</t>
+    <t xml:space="preserve">150pF/25V</t>
   </si>
   <si>
     <t xml:space="preserve">CL10C151JB8NFNC</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">TCOB0J227M8R-EN1</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R12, R15, R19</t>
+    <t xml:space="preserve">R1, R15</t>
   </si>
   <si>
     <t xml:space="preserve">2.20k</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">KOA Speer</t>
   </si>
   <si>
-    <t xml:space="preserve">R10</t>
+    <t xml:space="preserve">R10, R43</t>
   </si>
   <si>
     <t xml:space="preserve">4.7k</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">RK73H1JTTD4701F</t>
   </si>
   <si>
-    <t xml:space="preserve">R11, R13, R14, R17, R18</t>
+    <t xml:space="preserve">R11, R14, R17</t>
   </si>
   <si>
     <t xml:space="preserve">RK73H1JTTDD75R0F</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">RK73H1JTTD2103F</t>
   </si>
   <si>
-    <t xml:space="preserve">R26, R27, R30, R33</t>
+    <t xml:space="preserve">R26, R27, R30, R33, R41, R42</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">RK73H1JTTD3003F</t>
   </si>
   <si>
-    <t xml:space="preserve">R36, R37</t>
+    <t xml:space="preserve">R36, R37, R44</t>
   </si>
   <si>
     <t xml:space="preserve">RK73H1JTTD3300F</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">RK73H1JTTD5110F </t>
   </si>
   <si>
-    <t xml:space="preserve">R41, R42, R6, R7, R8, R9</t>
+    <t xml:space="preserve">R6, R7, R8, R9</t>
   </si>
   <si>
     <t xml:space="preserve">1k</t>
@@ -256,10 +256,10 @@
     <t xml:space="preserve">U1</t>
   </si>
   <si>
-    <t xml:space="preserve">SOIC-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL972IDR</t>
+    <t xml:space="preserve">SOIC-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL974IDR</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Instruments</t>
@@ -467,10 +467,10 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="26.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.87"/>
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>41</v>
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>45</v>
@@ -747,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>75</v>
@@ -839,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>59</v>
@@ -931,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>330</v>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>73</v>
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>75</v>
